--- a/lactate concentration calibration curve.xlsx
+++ b/lactate concentration calibration curve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>SD of B</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Average SD</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -492,6 +497,9 @@
       <c r="G2" t="n">
         <v>2.050357638112244</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.8307314730120101</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -515,6 +523,9 @@
       <c r="G3" t="n">
         <v>2.386168308286549</v>
       </c>
+      <c r="H3" t="n">
+        <v>3.268238077673198</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -538,6 +549,9 @@
       <c r="G4" t="n">
         <v>3.255941619652116</v>
       </c>
+      <c r="H4" t="n">
+        <v>6.712606848098226</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -561,6 +575,9 @@
       <c r="G5" t="n">
         <v>15.84271124661016</v>
       </c>
+      <c r="H5" t="n">
+        <v>17.30825574577326</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -584,6 +601,9 @@
       <c r="G6" t="n">
         <v>2.362775270909084</v>
       </c>
+      <c r="H6" t="n">
+        <v>2.902168636910457</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -607,6 +627,9 @@
       <c r="G7" t="n">
         <v>5.913977776402282</v>
       </c>
+      <c r="H7" t="n">
+        <v>5.182644104458443</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -629,6 +652,9 @@
       </c>
       <c r="G8" t="n">
         <v>7.819050566196241</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7.526999039119538</v>
       </c>
     </row>
   </sheetData>

--- a/lactate concentration calibration curve.xlsx
+++ b/lactate concentration calibration curve.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Lactate concentration</t>
+          <t>Lactate concentration (mM)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -532,25 +532,25 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>34.50746415991707</v>
+        <v>48.71078885527795</v>
       </c>
       <c r="C4" t="n">
-        <v>31.8705874830547</v>
+        <v>47.72753352650489</v>
       </c>
       <c r="D4" t="n">
-        <v>36.21228481130618</v>
+        <v>45.01499523696139</v>
       </c>
       <c r="E4" t="n">
-        <v>7.996288485983796</v>
+        <v>4.838066901500182</v>
       </c>
       <c r="F4" t="n">
-        <v>8.885590438658769</v>
+        <v>4.80067534151982</v>
       </c>
       <c r="G4" t="n">
-        <v>3.255941619652116</v>
+        <v>5.677943448582282</v>
       </c>
       <c r="H4" t="n">
-        <v>6.712606848098226</v>
+        <v>5.105561897200761</v>
       </c>
     </row>
     <row r="5">
@@ -558,25 +558,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>35.68945240857611</v>
+        <v>39.04769478520858</v>
       </c>
       <c r="C5" t="n">
-        <v>32.84777183212911</v>
+        <v>37.27146664092598</v>
       </c>
       <c r="D5" t="n">
-        <v>41.37730001466228</v>
+        <v>42.2691716789352</v>
       </c>
       <c r="E5" t="n">
-        <v>17.39154868764858</v>
+        <v>7.675853598881114</v>
       </c>
       <c r="F5" t="n">
-        <v>18.69050730306103</v>
+        <v>7.966710695416781</v>
       </c>
       <c r="G5" t="n">
-        <v>15.84271124661016</v>
+        <v>4.832150015979274</v>
       </c>
       <c r="H5" t="n">
-        <v>17.30825574577326</v>
+        <v>6.824904770092389</v>
       </c>
     </row>
     <row r="6">
